--- a/biology/Zoologie/Hystrix_indica/Hystrix_indica.xlsx
+++ b/biology/Zoologie/Hystrix_indica/Hystrix_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porc-épic indien
 Hystrix indica, le Porc-épic indien, est un mammifère de la famille des Hystricidae qui se rencontre en Inde, au Népal, au Bhoutan, au Bangladesh, au Sri Lanka, au Pakistan, en Turquie, en Israël, en Iran et en Arabie saoudite.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hystrix indica mesure de 70 à 90 centimètres, en ne comptant que le corps ; sa queue mesure de 8 à 10 centimètres.
 Sa masse varie de 11 à 18 kilogrammes.
